--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.546087</v>
+        <v>1.157153</v>
       </c>
       <c r="H2">
-        <v>1.638261</v>
+        <v>3.471459</v>
       </c>
       <c r="I2">
-        <v>0.617326940483036</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="J2">
-        <v>0.6173269404830359</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N2">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P2">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q2">
-        <v>88.413825646853</v>
+        <v>35.31916695647467</v>
       </c>
       <c r="R2">
-        <v>795.7244308216771</v>
+        <v>317.872502608272</v>
       </c>
       <c r="S2">
-        <v>0.2363975889499957</v>
+        <v>0.08399859393494961</v>
       </c>
       <c r="T2">
-        <v>0.2363975889499957</v>
+        <v>0.08399859393494963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.546087</v>
+        <v>1.157153</v>
       </c>
       <c r="H3">
-        <v>1.638261</v>
+        <v>3.471459</v>
       </c>
       <c r="I3">
-        <v>0.617326940483036</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="J3">
-        <v>0.6173269404830359</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O3">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P3">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q3">
-        <v>0.168054997728</v>
+        <v>0.356106892832</v>
       </c>
       <c r="R3">
-        <v>1.512494979552</v>
+        <v>3.204962035488</v>
       </c>
       <c r="S3">
-        <v>0.000449339184038693</v>
+        <v>0.0008469191338882433</v>
       </c>
       <c r="T3">
-        <v>0.000449339184038693</v>
+        <v>0.0008469191338882434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.546087</v>
+        <v>1.157153</v>
       </c>
       <c r="H4">
-        <v>1.638261</v>
+        <v>3.471459</v>
       </c>
       <c r="I4">
-        <v>0.617326940483036</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="J4">
-        <v>0.6173269404830359</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N4">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O4">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P4">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q4">
-        <v>19.422373250715</v>
+        <v>55.05204190784834</v>
       </c>
       <c r="R4">
-        <v>174.801359256435</v>
+        <v>495.4683771706351</v>
       </c>
       <c r="S4">
-        <v>0.05193081709296379</v>
+        <v>0.13092874243625</v>
       </c>
       <c r="T4">
-        <v>0.05193081709296379</v>
+        <v>0.13092874243625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.546087</v>
+        <v>1.157153</v>
       </c>
       <c r="H5">
-        <v>1.638261</v>
+        <v>3.471459</v>
       </c>
       <c r="I5">
-        <v>0.617326940483036</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="J5">
-        <v>0.6173269404830359</v>
+        <v>0.7933642744864839</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N5">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O5">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P5">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q5">
-        <v>122.87896587611</v>
+        <v>242.8611879931647</v>
       </c>
       <c r="R5">
-        <v>1105.91069288499</v>
+        <v>2185.750691938482</v>
       </c>
       <c r="S5">
-        <v>0.3285491952560379</v>
+        <v>0.5775900189813961</v>
       </c>
       <c r="T5">
-        <v>0.3285491952560379</v>
+        <v>0.5775900189813962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3385123333333334</v>
+        <v>0.3013863333333334</v>
       </c>
       <c r="H6">
-        <v>1.015537</v>
+        <v>0.904159</v>
       </c>
       <c r="I6">
-        <v>0.382673059516964</v>
+        <v>0.2066357255135161</v>
       </c>
       <c r="J6">
-        <v>0.382673059516964</v>
+        <v>0.206635725513516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.9042856666667</v>
+        <v>30.52246933333333</v>
       </c>
       <c r="N6">
-        <v>485.712857</v>
+        <v>91.567408</v>
       </c>
       <c r="O6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547768</v>
       </c>
       <c r="P6">
-        <v>0.3829374249648381</v>
+        <v>0.1058764512547769</v>
       </c>
       <c r="Q6">
-        <v>54.80659751768989</v>
+        <v>9.199055116652445</v>
       </c>
       <c r="R6">
-        <v>493.2593776592091</v>
+        <v>82.79149604987201</v>
       </c>
       <c r="S6">
-        <v>0.1465398360148424</v>
+        <v>0.02187785731982723</v>
       </c>
       <c r="T6">
-        <v>0.1465398360148424</v>
+        <v>0.02187785731982723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3385123333333334</v>
+        <v>0.3013863333333334</v>
       </c>
       <c r="H7">
-        <v>1.015537</v>
+        <v>0.904159</v>
       </c>
       <c r="I7">
-        <v>0.382673059516964</v>
+        <v>0.2066357255135161</v>
       </c>
       <c r="J7">
-        <v>0.382673059516964</v>
+        <v>0.206635725513516</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,22 +871,22 @@
         <v>0.9232319999999999</v>
       </c>
       <c r="O7">
-        <v>0.0007278787860563825</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="P7">
-        <v>0.0007278787860563827</v>
+        <v>0.001067503492562006</v>
       </c>
       <c r="Q7">
-        <v>0.1041751395093333</v>
+        <v>0.09274983576533333</v>
       </c>
       <c r="R7">
-        <v>0.937576255584</v>
+        <v>0.834748521888</v>
       </c>
       <c r="S7">
-        <v>0.0002785396020176896</v>
+        <v>0.0002205843586737623</v>
       </c>
       <c r="T7">
-        <v>0.0002785396020176897</v>
+        <v>0.0002205843586737623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3385123333333334</v>
+        <v>0.3013863333333334</v>
       </c>
       <c r="H8">
-        <v>1.015537</v>
+        <v>0.904159</v>
       </c>
       <c r="I8">
-        <v>0.382673059516964</v>
+        <v>0.2066357255135161</v>
       </c>
       <c r="J8">
-        <v>0.382673059516964</v>
+        <v>0.206635725513516</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.56644499999999</v>
+        <v>47.57542166666667</v>
       </c>
       <c r="N8">
-        <v>106.699335</v>
+        <v>142.726265</v>
       </c>
       <c r="O8">
-        <v>0.08412206512861695</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="P8">
-        <v>0.08412206512861696</v>
+        <v>0.1650297935598315</v>
       </c>
       <c r="Q8">
-        <v>12.03968028532167</v>
+        <v>14.33858189290389</v>
       </c>
       <c r="R8">
-        <v>108.357122567895</v>
+        <v>129.047237036135</v>
       </c>
       <c r="S8">
-        <v>0.03219124803565315</v>
+        <v>0.03410105112358157</v>
       </c>
       <c r="T8">
-        <v>0.03219124803565316</v>
+        <v>0.03410105112358156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3385123333333334</v>
+        <v>0.3013863333333334</v>
       </c>
       <c r="H9">
-        <v>1.015537</v>
+        <v>0.904159</v>
       </c>
       <c r="I9">
-        <v>0.382673059516964</v>
+        <v>0.2066357255135161</v>
       </c>
       <c r="J9">
-        <v>0.382673059516964</v>
+        <v>0.206635725513516</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>225.0171966666667</v>
+        <v>209.8781993333333</v>
       </c>
       <c r="N9">
-        <v>675.05159</v>
+        <v>629.634598</v>
       </c>
       <c r="O9">
-        <v>0.5322126311204886</v>
+        <v>0.7280262516928295</v>
       </c>
       <c r="P9">
-        <v>0.5322126311204887</v>
+        <v>0.7280262516928296</v>
       </c>
       <c r="Q9">
-        <v>76.1710962837589</v>
+        <v>63.25442094367578</v>
       </c>
       <c r="R9">
-        <v>685.5398665538302</v>
+        <v>569.289788493082</v>
       </c>
       <c r="S9">
-        <v>0.2036634358644507</v>
+        <v>0.1504362327114335</v>
       </c>
       <c r="T9">
-        <v>0.2036634358644508</v>
+        <v>0.1504362327114335</v>
       </c>
     </row>
   </sheetData>
